--- a/Lab4CPU设计实验/指令表.xlsx
+++ b/Lab4CPU设计实验/指令表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,19 +534,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,97 +635,154 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>

--- a/Lab4CPU设计实验/指令表.xlsx
+++ b/Lab4CPU设计实验/指令表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>BLEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +542,7 @@
   <dimension ref="A2:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -648,8 +652,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">

--- a/Lab4CPU设计实验/指令表.xlsx
+++ b/Lab4CPU设计实验/指令表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,17 +210,13 @@
   </si>
   <si>
     <t>BLEZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,19 +534,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -652,11 +648,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -664,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -672,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -680,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -688,27 +681,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -731,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -739,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -750,27 +743,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -781,12 +774,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
